--- a/untranslated/downloads/data-excel/3.b.1.xlsx
+++ b/untranslated/downloads/data-excel/3.b.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ПоказателиЦУР для Платформы\Глобальные показатели ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Глобальные показатели ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -880,7 +880,7 @@
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -1035,6 +1035,14 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="112">
     <cellStyle name="20% — акцент1" xfId="17" builtinId="30" customBuiltin="1"/>
@@ -1428,7 +1436,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1437,7 +1447,7 @@
     <col min="17" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>29</v>
       </c>
@@ -1448,7 +1458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>47</v>
       </c>
@@ -1472,7 +1482,7 @@
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
     </row>
-    <row r="3" spans="1:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="33"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -1489,8 +1499,9 @@
       <c r="N3" s="33"/>
       <c r="O3" s="33"/>
       <c r="P3" s="33"/>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q3" s="33"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>33</v>
       </c>
@@ -1539,8 +1550,11 @@
       <c r="P4" s="20">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="36" x14ac:dyDescent="0.25">
+      <c r="Q4" s="20">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="36" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
         <v>30</v>
       </c>
@@ -1550,8 +1564,9 @@
       <c r="C5" s="13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5" s="52"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -1600,8 +1615,11 @@
       <c r="P6" s="21">
         <v>94.351083080525839</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6" s="53">
+        <v>88.157250792756912</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
         <v>37</v>
       </c>
@@ -1650,8 +1668,11 @@
       <c r="P7" s="11">
         <v>98.322618783713892</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q7" s="54">
+        <v>91.684705531089051</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
         <v>38</v>
       </c>
@@ -1700,8 +1721,11 @@
       <c r="P8" s="11">
         <v>90.174028583465656</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q8" s="54">
+        <v>87.415503615268193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
         <v>39</v>
       </c>
@@ -1750,8 +1774,11 @@
       <c r="P9" s="11">
         <v>94.575713992192306</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9" s="54">
+        <v>87.60435379900666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>40</v>
       </c>
@@ -1800,8 +1827,11 @@
       <c r="P10" s="11">
         <v>97.592920353982308</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10" s="54">
+        <v>90.958704748044383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
         <v>41</v>
       </c>
@@ -1850,8 +1880,11 @@
       <c r="P11" s="11">
         <v>99.335639714661852</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11" s="54">
+        <v>95.543628277871491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
         <v>42</v>
       </c>
@@ -1900,8 +1933,11 @@
       <c r="P12" s="11">
         <v>92.698706099815155</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12" s="54">
+        <v>94.17195614541258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
         <v>43</v>
       </c>
@@ -1950,8 +1986,11 @@
       <c r="P13" s="11">
         <v>91.652621722846433</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q13" s="54">
+        <v>89.922189931564631</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
         <v>44</v>
       </c>
@@ -2000,8 +2039,11 @@
       <c r="P14" s="11">
         <v>92.01890494025325</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q14" s="54">
+        <v>73.377390695435253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>45</v>
       </c>
@@ -2050,8 +2092,11 @@
       <c r="P15" s="10">
         <v>95.586032038723062</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="Q15" s="55">
+        <v>87.34037868780274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>31</v>
       </c>
@@ -2073,8 +2118,9 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="38"/>
-    </row>
-    <row r="17" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q16" s="56"/>
+    </row>
+    <row r="17" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="30" t="s">
         <v>36</v>
       </c>
@@ -2123,8 +2169,11 @@
       <c r="P17" s="41">
         <v>97.245413942140573</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q17" s="57">
+        <v>93.789318610145202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="s">
         <v>37</v>
       </c>
@@ -2173,8 +2222,11 @@
       <c r="P18" s="10">
         <v>98.254512904669554</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q18" s="55">
+        <v>98.728938811705589</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="35" t="s">
         <v>38</v>
       </c>
@@ -2223,8 +2275,11 @@
       <c r="P19" s="11">
         <v>93.035178795988784</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q19" s="54">
+        <v>91.334273435401556</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="35" t="s">
         <v>39</v>
       </c>
@@ -2273,8 +2328,11 @@
       <c r="P20" s="11">
         <v>97.676980074096321</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q20" s="54">
+        <v>96.098069900886813</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="35" t="s">
         <v>40</v>
       </c>
@@ -2323,8 +2381,11 @@
       <c r="P21" s="11">
         <v>98.140747176368365</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q21" s="54">
+        <v>96.233183856502251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="35" t="s">
         <v>41</v>
       </c>
@@ -2373,8 +2434,11 @@
       <c r="P22" s="11">
         <v>99.619945272119182</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q22" s="54">
+        <v>97.454998783750909</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="35" t="s">
         <v>42</v>
       </c>
@@ -2423,8 +2487,11 @@
       <c r="P23" s="11">
         <v>95.974889217134418</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q23" s="54">
+        <v>95.177033492822972</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="35" t="s">
         <v>43</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="P24" s="11">
         <v>99.45064923272497</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q24" s="54">
+        <v>97.514721565354478</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="35" t="s">
         <v>44</v>
       </c>
@@ -2523,8 +2593,11 @@
       <c r="P25" s="15">
         <v>96.444387118964698</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q25" s="54">
+        <v>83.697507681802662</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="35" t="s">
         <v>45</v>
       </c>
@@ -2573,8 +2646,11 @@
       <c r="P26" s="15">
         <v>97.981882811604166</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+      <c r="Q26" s="54">
+        <v>93.662126537785582</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="36" x14ac:dyDescent="0.2">
       <c r="A27" s="24" t="s">
         <v>32</v>
       </c>
@@ -2596,8 +2672,9 @@
       <c r="N27" s="16"/>
       <c r="O27" s="16"/>
       <c r="P27" s="17"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q27" s="52"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="31" t="s">
         <v>36</v>
       </c>
@@ -2646,9 +2723,12 @@
       <c r="P28" s="22">
         <v>95.083643367898887</v>
       </c>
+      <c r="Q28" s="53">
+        <v>88.782541857434083</v>
+      </c>
       <c r="S28" s="11"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="35" t="s">
         <v>37</v>
       </c>
@@ -2697,9 +2777,12 @@
       <c r="P29" s="15">
         <v>99.597511891694111</v>
       </c>
+      <c r="Q29" s="54">
+        <v>83.44010727056019</v>
+      </c>
       <c r="S29" s="11"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="35" t="s">
         <v>38</v>
       </c>
@@ -2748,9 +2831,12 @@
       <c r="P30" s="15">
         <v>90.08985713362209</v>
       </c>
+      <c r="Q30" s="54">
+        <v>88.195819212830926</v>
+      </c>
       <c r="S30" s="11"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="35" t="s">
         <v>39</v>
       </c>
@@ -2799,9 +2885,12 @@
       <c r="P31" s="15">
         <v>94.992817566181003</v>
       </c>
+      <c r="Q31" s="54">
+        <v>88.268864933417873</v>
+      </c>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="35" t="s">
         <v>40</v>
       </c>
@@ -2850,9 +2939,12 @@
       <c r="P32" s="15">
         <v>97.283380681818173</v>
       </c>
+      <c r="Q32" s="54">
+        <v>91.250903832248724</v>
+      </c>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="35" t="s">
         <v>41</v>
       </c>
@@ -2901,10 +2993,13 @@
       <c r="P33" s="15">
         <v>98.414509639060725</v>
       </c>
+      <c r="Q33" s="54">
+        <v>95.711274704462852</v>
+      </c>
       <c r="S33" s="11"/>
       <c r="T33" s="48"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="35" t="s">
         <v>42</v>
       </c>
@@ -2953,10 +3048,13 @@
       <c r="P34" s="15">
         <v>94.2978409300609</v>
       </c>
+      <c r="Q34" s="54">
+        <v>95.762224352828383</v>
+      </c>
       <c r="S34" s="11"/>
       <c r="T34" s="16"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="35" t="s">
         <v>43</v>
       </c>
@@ -3005,10 +3103,13 @@
       <c r="P35" s="15">
         <v>94.916127823071875</v>
       </c>
+      <c r="Q35" s="54">
+        <v>90.95590300533658</v>
+      </c>
       <c r="S35" s="11"/>
       <c r="T35" s="16"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="35" t="s">
         <v>44</v>
       </c>
@@ -3057,10 +3158,13 @@
       <c r="P36" s="15">
         <v>93.823490842330727</v>
       </c>
+      <c r="Q36" s="54">
+        <v>79.37812567949554</v>
+      </c>
       <c r="S36" s="11"/>
       <c r="T36" s="16"/>
     </row>
-    <row r="37" spans="1:20" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="49" t="s">
         <v>45</v>
       </c>
@@ -3109,10 +3213,13 @@
       <c r="P37" s="51">
         <v>95.896253602305464</v>
       </c>
+      <c r="Q37" s="59">
+        <v>87.352779306549252</v>
+      </c>
       <c r="S37" s="11"/>
       <c r="T37" s="48"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -3127,6 +3234,7 @@
       <c r="N38" s="16"/>
       <c r="O38" s="16"/>
       <c r="P38" s="16"/>
+      <c r="Q38" s="58"/>
       <c r="T38" s="16"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">

--- a/untranslated/downloads/data-excel/3.b.1.xlsx
+++ b/untranslated/downloads/data-excel/3.b.1.xlsx
@@ -71,9 +71,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>Percentage of target population immunized with all vaccines included in national programs</t>
-  </si>
-  <si>
     <t>DTP vaccine coverage (for diphtheria, tetanus and pertussis) (3 doses)</t>
   </si>
   <si>
@@ -171,6 +168,9 @@
   </si>
   <si>
     <t>(in percent)</t>
+  </si>
+  <si>
+    <t>3.b.1 Percentage of target population immunized with all vaccines included in national programs</t>
   </si>
 </sst>
 </file>
@@ -1437,7 +1437,7 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -1449,24 +1449,24 @@
   <sheetData>
     <row r="1" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="32" t="s">
         <v>47</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>48</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -1503,13 +1503,13 @@
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="C4" s="29" t="s">
         <v>34</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>35</v>
       </c>
       <c r="D4" s="20">
         <v>2007</v>
@@ -1556,25 +1556,25 @@
     </row>
     <row r="5" spans="1:17" ht="36" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q5" s="52"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="21">
         <v>94.1</v>
@@ -1621,13 +1621,13 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="5">
         <v>93.4</v>
@@ -1674,13 +1674,13 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="5">
         <v>93.6</v>
@@ -1727,13 +1727,13 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="35" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="5">
         <v>93.9</v>
@@ -1780,13 +1780,13 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="5">
         <v>94.4</v>
@@ -1833,13 +1833,13 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="5">
         <v>94.4</v>
@@ -1886,13 +1886,13 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="35" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="5">
         <v>94</v>
@@ -1939,13 +1939,13 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="35" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="5">
         <v>94</v>
@@ -1992,13 +1992,13 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="5">
         <v>95</v>
@@ -2045,13 +2045,13 @@
     </row>
     <row r="15" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="37" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="6">
         <v>95.2</v>
@@ -2098,13 +2098,13 @@
     </row>
     <row r="16" spans="1:17" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -2122,13 +2122,13 @@
     </row>
     <row r="17" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="39">
         <v>98.8</v>
@@ -2175,13 +2175,13 @@
     </row>
     <row r="18" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="37" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="42">
         <v>99.2</v>
@@ -2228,13 +2228,13 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="35" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="45">
         <v>97.8</v>
@@ -2281,13 +2281,13 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" s="47">
         <v>99</v>
@@ -2334,13 +2334,13 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="45">
         <v>99.4</v>
@@ -2387,13 +2387,13 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="35" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" s="45">
         <v>98.9</v>
@@ -2440,13 +2440,13 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="35" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="45">
         <v>98.6</v>
@@ -2493,13 +2493,13 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="35" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" s="45">
         <v>99.1</v>
@@ -2546,13 +2546,13 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="35" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" s="45">
         <v>99.8</v>
@@ -2599,13 +2599,13 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="45">
         <v>98.8</v>
@@ -2652,13 +2652,13 @@
     </row>
     <row r="27" spans="1:19" ht="36" x14ac:dyDescent="0.2">
       <c r="A27" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -2676,13 +2676,13 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>14</v>
@@ -2730,13 +2730,13 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="35" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>14</v>
@@ -2784,13 +2784,13 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="35" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>14</v>
@@ -2838,13 +2838,13 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="35" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>14</v>
@@ -2892,13 +2892,13 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>14</v>
@@ -2946,13 +2946,13 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" s="35" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>14</v>
@@ -3001,13 +3001,13 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" s="35" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>14</v>
@@ -3056,13 +3056,13 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="35" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>14</v>
@@ -3111,13 +3111,13 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" s="35" t="s">
         <v>10</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>14</v>
@@ -3166,13 +3166,13 @@
     </row>
     <row r="37" spans="1:20" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="49" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" s="25" t="s">
         <v>14</v>

--- a/untranslated/downloads/data-excel/3.b.1.xlsx
+++ b/untranslated/downloads/data-excel/3.b.1.xlsx
@@ -1437,7 +1437,7 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -1447,7 +1447,7 @@
     <col min="17" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>28</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>46</v>
       </c>
@@ -1482,7 +1482,7 @@
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
     </row>
-    <row r="3" spans="1:17" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="33"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -1500,8 +1500,9 @@
       <c r="O3" s="33"/>
       <c r="P3" s="33"/>
       <c r="Q3" s="33"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R3" s="33"/>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>32</v>
       </c>
@@ -1553,8 +1554,11 @@
       <c r="Q4" s="20">
         <v>2020</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="36" x14ac:dyDescent="0.2">
+      <c r="R4" s="20">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="36" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
         <v>29</v>
       </c>
@@ -1565,8 +1569,9 @@
         <v>15</v>
       </c>
       <c r="Q5" s="52"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R5" s="52"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -1618,8 +1623,11 @@
       <c r="Q6" s="53">
         <v>88.157250792756912</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R6" s="53">
+        <v>88.796593100633856</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
         <v>36</v>
       </c>
@@ -1671,8 +1679,11 @@
       <c r="Q7" s="54">
         <v>91.684705531089051</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="54">
+        <v>86.908583391486388</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
         <v>37</v>
       </c>
@@ -1724,8 +1735,11 @@
       <c r="Q8" s="54">
         <v>87.415503615268193</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="54">
+        <v>89.680106631122953</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
         <v>38</v>
       </c>
@@ -1777,8 +1791,11 @@
       <c r="Q9" s="54">
         <v>87.60435379900666</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="54">
+        <v>95.775910364145659</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>39</v>
       </c>
@@ -1830,8 +1847,11 @@
       <c r="Q10" s="54">
         <v>90.958704748044383</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="54">
+        <v>96.517042279754136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
         <v>40</v>
       </c>
@@ -1883,8 +1903,11 @@
       <c r="Q11" s="54">
         <v>95.543628277871491</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="54">
+        <v>90.311530128242666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
         <v>41</v>
       </c>
@@ -1936,8 +1959,11 @@
       <c r="Q12" s="54">
         <v>94.17195614541258</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="54">
+        <v>90.746324915190343</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
         <v>42</v>
       </c>
@@ -1989,8 +2015,11 @@
       <c r="Q13" s="54">
         <v>89.922189931564631</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="54">
+        <v>90.894107952204379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
         <v>43</v>
       </c>
@@ -2042,8 +2071,11 @@
       <c r="Q14" s="54">
         <v>73.377390695435253</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R14" s="54">
+        <v>81.065680730752504</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>44</v>
       </c>
@@ -2095,8 +2127,11 @@
       <c r="Q15" s="55">
         <v>87.34037868780274</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="R15" s="55">
+        <v>85.088888888888889</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>30</v>
       </c>
@@ -2119,6 +2154,7 @@
       <c r="N16" s="8"/>
       <c r="O16" s="38"/>
       <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
     </row>
     <row r="17" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="30" t="s">
@@ -2172,6 +2208,9 @@
       <c r="Q17" s="57">
         <v>93.789318610145202</v>
       </c>
+      <c r="R17" s="57">
+        <v>93.37839883628321</v>
+      </c>
     </row>
     <row r="18" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="s">
@@ -2225,6 +2264,9 @@
       <c r="Q18" s="55">
         <v>98.728938811705589</v>
       </c>
+      <c r="R18" s="55">
+        <v>93.091416608513612</v>
+      </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="35" t="s">
@@ -2278,6 +2320,9 @@
       <c r="Q19" s="54">
         <v>91.334273435401556</v>
       </c>
+      <c r="R19" s="54">
+        <v>94.815061646117954</v>
+      </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="35" t="s">
@@ -2331,6 +2376,9 @@
       <c r="Q20" s="54">
         <v>96.098069900886813</v>
       </c>
+      <c r="R20" s="54">
+        <v>100.53781512605042</v>
+      </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="35" t="s">
@@ -2384,6 +2432,9 @@
       <c r="Q21" s="54">
         <v>96.233183856502251</v>
       </c>
+      <c r="R21" s="54">
+        <v>100.33525796237662</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="35" t="s">
@@ -2437,6 +2488,9 @@
       <c r="Q22" s="54">
         <v>97.454998783750909</v>
       </c>
+      <c r="R22" s="54">
+        <v>93.78989283832054</v>
+      </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="35" t="s">
@@ -2490,6 +2544,9 @@
       <c r="Q23" s="54">
         <v>95.177033492822972</v>
       </c>
+      <c r="R23" s="54">
+        <v>95.401432340746325</v>
+      </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="35" t="s">
@@ -2543,6 +2600,9 @@
       <c r="Q24" s="54">
         <v>97.514721565354478</v>
       </c>
+      <c r="R24" s="54">
+        <v>92.308748798242007</v>
+      </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="35" t="s">
@@ -2596,6 +2656,9 @@
       <c r="Q25" s="54">
         <v>83.697507681802662</v>
       </c>
+      <c r="R25" s="54">
+        <v>89.338842975206617</v>
+      </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="35" t="s">
@@ -2648,6 +2711,9 @@
       </c>
       <c r="Q26" s="54">
         <v>93.662126537785582</v>
+      </c>
+      <c r="R26" s="54">
+        <v>87.955555555555549</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="36" x14ac:dyDescent="0.2">
@@ -2673,6 +2739,7 @@
       <c r="O27" s="16"/>
       <c r="P27" s="17"/>
       <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="31" t="s">
@@ -2726,6 +2793,9 @@
       <c r="Q28" s="53">
         <v>88.782541857434083</v>
       </c>
+      <c r="R28" s="53">
+        <v>89.631204460036727</v>
+      </c>
       <c r="S28" s="11"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
@@ -2780,6 +2850,9 @@
       <c r="Q29" s="54">
         <v>83.44010727056019</v>
       </c>
+      <c r="R29" s="54">
+        <v>89.204466154919743</v>
+      </c>
       <c r="S29" s="11"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
@@ -2834,6 +2907,9 @@
       <c r="Q30" s="54">
         <v>88.195819212830926</v>
       </c>
+      <c r="R30" s="54">
+        <v>84.751749416861045</v>
+      </c>
       <c r="S30" s="11"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
@@ -2888,6 +2964,9 @@
       <c r="Q31" s="54">
         <v>88.268864933417873</v>
       </c>
+      <c r="R31" s="54">
+        <v>96.201680672268907</v>
+      </c>
       <c r="S31" s="11"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
@@ -2942,6 +3021,9 @@
       <c r="Q32" s="54">
         <v>91.250903832248724</v>
       </c>
+      <c r="R32" s="54">
+        <v>95.567144719687093</v>
+      </c>
       <c r="S32" s="11"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
@@ -2996,6 +3078,9 @@
       <c r="Q33" s="54">
         <v>95.711274704462852</v>
       </c>
+      <c r="R33" s="54">
+        <v>91.330444457457389</v>
+      </c>
       <c r="S33" s="11"/>
       <c r="T33" s="48"/>
     </row>
@@ -3051,6 +3136,9 @@
       <c r="Q34" s="54">
         <v>95.762224352828383</v>
       </c>
+      <c r="R34" s="54">
+        <v>91.368262344515642</v>
+      </c>
       <c r="S34" s="11"/>
       <c r="T34" s="16"/>
     </row>
@@ -3106,6 +3194,9 @@
       <c r="Q35" s="54">
         <v>90.95590300533658</v>
       </c>
+      <c r="R35" s="54">
+        <v>92.345373803964662</v>
+      </c>
       <c r="S35" s="11"/>
       <c r="T35" s="16"/>
     </row>
@@ -3161,6 +3252,9 @@
       <c r="Q36" s="54">
         <v>79.37812567949554</v>
       </c>
+      <c r="R36" s="54">
+        <v>88.660287081339717</v>
+      </c>
       <c r="S36" s="11"/>
       <c r="T36" s="16"/>
     </row>
@@ -3215,6 +3309,9 @@
       </c>
       <c r="Q37" s="59">
         <v>87.352779306549252</v>
+      </c>
+      <c r="R37" s="59">
+        <v>84.944444444444443</v>
       </c>
       <c r="S37" s="11"/>
       <c r="T37" s="48"/>
@@ -3235,6 +3332,7 @@
       <c r="O38" s="16"/>
       <c r="P38" s="16"/>
       <c r="Q38" s="58"/>
+      <c r="R38" s="58"/>
       <c r="T38" s="16"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">

--- a/untranslated/downloads/data-excel/3.b.1.xlsx
+++ b/untranslated/downloads/data-excel/3.b.1.xlsx
@@ -880,7 +880,7 @@
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -1043,6 +1043,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="112">
     <cellStyle name="20% — акцент1" xfId="17" builtinId="30" customBuiltin="1"/>
@@ -1437,7 +1438,7 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -1447,7 +1448,7 @@
     <col min="17" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>28</v>
       </c>
@@ -1458,7 +1459,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>46</v>
       </c>
@@ -1482,7 +1483,7 @@
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
     </row>
-    <row r="3" spans="1:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="33"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -1501,8 +1502,9 @@
       <c r="P3" s="33"/>
       <c r="Q3" s="33"/>
       <c r="R3" s="33"/>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S3" s="33"/>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>32</v>
       </c>
@@ -1557,8 +1559,11 @@
       <c r="R4" s="20">
         <v>2021</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="36" x14ac:dyDescent="0.2">
+      <c r="S4" s="20">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="36" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
         <v>29</v>
       </c>
@@ -1570,8 +1575,9 @@
       </c>
       <c r="Q5" s="52"/>
       <c r="R5" s="52"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S5" s="52"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -1626,8 +1632,11 @@
       <c r="R6" s="53">
         <v>88.796593100633856</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S6" s="53">
+        <v>91.320113549242663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
         <v>36</v>
       </c>
@@ -1682,8 +1691,11 @@
       <c r="R7" s="54">
         <v>86.908583391486388</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="54">
+        <v>95.532963647566234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
         <v>37</v>
       </c>
@@ -1738,8 +1750,11 @@
       <c r="R8" s="54">
         <v>89.680106631122953</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="54">
+        <v>91.979142449101602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
         <v>38</v>
       </c>
@@ -1794,8 +1809,11 @@
       <c r="R9" s="54">
         <v>95.775910364145659</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="54">
+        <v>97.11736444749485</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>39</v>
       </c>
@@ -1850,8 +1868,11 @@
       <c r="R10" s="54">
         <v>96.517042279754136</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="54">
+        <v>95.22197889707347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
         <v>40</v>
       </c>
@@ -1906,8 +1927,11 @@
       <c r="R11" s="54">
         <v>90.311530128242666</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="54">
+        <v>95.83359340865114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
         <v>41</v>
       </c>
@@ -1962,8 +1986,11 @@
       <c r="R12" s="54">
         <v>90.746324915190343</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="54">
+        <v>91.694814226107695</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
         <v>42</v>
       </c>
@@ -2018,8 +2045,11 @@
       <c r="R13" s="54">
         <v>90.894107952204379</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="54">
+        <v>92.720266061341917</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
         <v>43</v>
       </c>
@@ -2074,8 +2104,11 @@
       <c r="R14" s="54">
         <v>81.065680730752504</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S14" s="54">
+        <v>78.590540307267389</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>44</v>
       </c>
@@ -2130,8 +2163,11 @@
       <c r="R15" s="55">
         <v>85.088888888888889</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="S15" s="55">
+        <v>88.700629650829995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>30</v>
       </c>
@@ -2155,6 +2191,7 @@
       <c r="O16" s="38"/>
       <c r="Q16" s="56"/>
       <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
     </row>
     <row r="17" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="30" t="s">
@@ -2211,6 +2248,9 @@
       <c r="R17" s="57">
         <v>93.37839883628321</v>
       </c>
+      <c r="S17" s="53">
+        <v>96.389078828315476</v>
+      </c>
     </row>
     <row r="18" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="s">
@@ -2267,6 +2307,9 @@
       <c r="R18" s="55">
         <v>93.091416608513612</v>
       </c>
+      <c r="S18" s="54">
+        <v>95.902649414664197</v>
+      </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="35" t="s">
@@ -2323,6 +2366,9 @@
       <c r="R19" s="54">
         <v>94.815061646117954</v>
       </c>
+      <c r="S19" s="54">
+        <v>95.851738682785879</v>
+      </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="35" t="s">
@@ -2379,6 +2425,9 @@
       <c r="R20" s="54">
         <v>100.53781512605042</v>
       </c>
+      <c r="S20" s="54">
+        <v>102.7568062228323</v>
+      </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="35" t="s">
@@ -2435,6 +2484,9 @@
       <c r="R21" s="54">
         <v>100.33525796237662</v>
       </c>
+      <c r="S21" s="54">
+        <v>99.681465259804895</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="35" t="s">
@@ -2491,6 +2543,9 @@
       <c r="R22" s="54">
         <v>93.78989283832054</v>
       </c>
+      <c r="S22" s="54">
+        <v>99.066849759690413</v>
+      </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="35" t="s">
@@ -2547,6 +2602,9 @@
       <c r="R23" s="54">
         <v>95.401432340746325</v>
       </c>
+      <c r="S23" s="54">
+        <v>99.105901053049877</v>
+      </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="35" t="s">
@@ -2603,6 +2661,9 @@
       <c r="R24" s="54">
         <v>92.308748798242007</v>
       </c>
+      <c r="S24" s="54">
+        <v>100.16892783614</v>
+      </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="35" t="s">
@@ -2659,6 +2720,9 @@
       <c r="R25" s="54">
         <v>89.338842975206617</v>
       </c>
+      <c r="S25" s="54">
+        <v>87.061971344726402</v>
+      </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="35" t="s">
@@ -2714,6 +2778,9 @@
       </c>
       <c r="R26" s="54">
         <v>87.955555555555549</v>
+      </c>
+      <c r="S26" s="55">
+        <v>95.855752718946761</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="36" x14ac:dyDescent="0.2">
@@ -2740,6 +2807,7 @@
       <c r="P27" s="17"/>
       <c r="Q27" s="52"/>
       <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="31" t="s">
@@ -2796,7 +2864,9 @@
       <c r="R28" s="53">
         <v>89.631204460036727</v>
       </c>
-      <c r="S28" s="11"/>
+      <c r="S28" s="53">
+        <v>92.843773094907561</v>
+      </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="35" t="s">
@@ -2853,7 +2923,9 @@
       <c r="R29" s="54">
         <v>89.204466154919743</v>
       </c>
-      <c r="S29" s="11"/>
+      <c r="S29" s="54">
+        <v>95.656192236598898</v>
+      </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="35" t="s">
@@ -2910,7 +2982,9 @@
       <c r="R30" s="54">
         <v>84.751749416861045</v>
       </c>
-      <c r="S30" s="11"/>
+      <c r="S30" s="54">
+        <v>91.580590521106643</v>
+      </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="35" t="s">
@@ -2967,7 +3041,9 @@
       <c r="R31" s="54">
         <v>96.201680672268907</v>
       </c>
-      <c r="S31" s="11"/>
+      <c r="S31" s="54">
+        <v>97.643559826126747</v>
+      </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="35" t="s">
@@ -3024,7 +3100,9 @@
       <c r="R32" s="54">
         <v>95.567144719687093</v>
       </c>
-      <c r="S32" s="11"/>
+      <c r="S32" s="54">
+        <v>95.022894684451515</v>
+      </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="35" t="s">
@@ -3081,7 +3159,9 @@
       <c r="R33" s="54">
         <v>91.330444457457389</v>
       </c>
-      <c r="S33" s="11"/>
+      <c r="S33" s="54">
+        <v>96.0270894451033</v>
+      </c>
       <c r="T33" s="48"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
@@ -3139,7 +3219,9 @@
       <c r="R34" s="54">
         <v>91.368262344515642</v>
       </c>
-      <c r="S34" s="11"/>
+      <c r="S34" s="54">
+        <v>90.224518180011927</v>
+      </c>
       <c r="T34" s="16"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
@@ -3197,7 +3279,9 @@
       <c r="R35" s="54">
         <v>92.345373803964662</v>
       </c>
-      <c r="S35" s="11"/>
+      <c r="S35" s="54">
+        <v>94.65237818719315</v>
+      </c>
       <c r="T35" s="16"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
@@ -3255,7 +3339,9 @@
       <c r="R36" s="54">
         <v>88.660287081339717</v>
       </c>
-      <c r="S36" s="11"/>
+      <c r="S36" s="54">
+        <v>86.721042637666145</v>
+      </c>
       <c r="T36" s="16"/>
     </row>
     <row r="37" spans="1:20" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -3313,10 +3399,12 @@
       <c r="R37" s="59">
         <v>84.944444444444443</v>
       </c>
-      <c r="S37" s="11"/>
+      <c r="S37" s="54">
+        <v>89.112764739553512</v>
+      </c>
       <c r="T37" s="48"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -3333,6 +3421,7 @@
       <c r="P38" s="16"/>
       <c r="Q38" s="58"/>
       <c r="R38" s="58"/>
+      <c r="S38" s="60"/>
       <c r="T38" s="16"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">

--- a/untranslated/downloads/data-excel/3.b.1.xlsx
+++ b/untranslated/downloads/data-excel/3.b.1.xlsx
@@ -880,7 +880,7 @@
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -1022,9 +1022,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1043,7 +1040,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="112">
     <cellStyle name="20% — акцент1" xfId="17" builtinId="30" customBuiltin="1"/>
@@ -1437,29 +1433,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="40.28515625" style="12" customWidth="1"/>
+    <col min="1" max="3" width="38.5703125" style="12" customWidth="1"/>
     <col min="4" max="16" width="7.7109375" style="12" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>46</v>
       </c>
@@ -1483,7 +1477,7 @@
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
     </row>
-    <row r="3" spans="1:19" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="33"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -1503,8 +1497,9 @@
       <c r="Q3" s="33"/>
       <c r="R3" s="33"/>
       <c r="S3" s="33"/>
-    </row>
-    <row r="4" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T3" s="33"/>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>32</v>
       </c>
@@ -1562,8 +1557,11 @@
       <c r="S4" s="20">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="36" x14ac:dyDescent="0.2">
+      <c r="T4" s="20">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="36" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
         <v>29</v>
       </c>
@@ -1573,11 +1571,12 @@
       <c r="C5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -1626,17 +1625,20 @@
       <c r="P6" s="21">
         <v>94.351083080525839</v>
       </c>
-      <c r="Q6" s="53">
+      <c r="Q6" s="52">
         <v>88.157250792756912</v>
       </c>
-      <c r="R6" s="53">
+      <c r="R6" s="52">
         <v>88.796593100633856</v>
       </c>
-      <c r="S6" s="53">
+      <c r="S6" s="52">
         <v>91.320113549242663</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T6" s="52">
+        <v>87.939982676297319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
         <v>36</v>
       </c>
@@ -1685,17 +1687,20 @@
       <c r="P7" s="11">
         <v>98.322618783713892</v>
       </c>
-      <c r="Q7" s="54">
+      <c r="Q7" s="53">
         <v>91.684705531089051</v>
       </c>
-      <c r="R7" s="54">
+      <c r="R7" s="53">
         <v>86.908583391486388</v>
       </c>
-      <c r="S7" s="54">
+      <c r="S7" s="53">
         <v>95.532963647566234</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="53">
+        <v>94.667839155807826</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
         <v>37</v>
       </c>
@@ -1744,17 +1749,20 @@
       <c r="P8" s="11">
         <v>90.174028583465656</v>
       </c>
-      <c r="Q8" s="54">
+      <c r="Q8" s="53">
         <v>87.415503615268193</v>
       </c>
-      <c r="R8" s="54">
+      <c r="R8" s="53">
         <v>89.680106631122953</v>
       </c>
-      <c r="S8" s="54">
+      <c r="S8" s="53">
         <v>91.979142449101602</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="53">
+        <v>89.354637891678763</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
         <v>38</v>
       </c>
@@ -1803,17 +1811,20 @@
       <c r="P9" s="11">
         <v>94.575713992192306</v>
       </c>
-      <c r="Q9" s="54">
+      <c r="Q9" s="53">
         <v>87.60435379900666</v>
       </c>
-      <c r="R9" s="54">
+      <c r="R9" s="53">
         <v>95.775910364145659</v>
       </c>
-      <c r="S9" s="54">
+      <c r="S9" s="53">
         <v>97.11736444749485</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="53">
+        <v>90.177417459757962</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>39</v>
       </c>
@@ -1862,17 +1873,20 @@
       <c r="P10" s="11">
         <v>97.592920353982308</v>
       </c>
-      <c r="Q10" s="54">
+      <c r="Q10" s="53">
         <v>90.958704748044383</v>
       </c>
-      <c r="R10" s="54">
+      <c r="R10" s="53">
         <v>96.517042279754136</v>
       </c>
-      <c r="S10" s="54">
+      <c r="S10" s="53">
         <v>95.22197889707347</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="53">
+        <v>85.668586052463212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
         <v>40</v>
       </c>
@@ -1921,17 +1935,20 @@
       <c r="P11" s="11">
         <v>99.335639714661852</v>
       </c>
-      <c r="Q11" s="54">
+      <c r="Q11" s="53">
         <v>95.543628277871491</v>
       </c>
-      <c r="R11" s="54">
+      <c r="R11" s="53">
         <v>90.311530128242666</v>
       </c>
-      <c r="S11" s="54">
+      <c r="S11" s="53">
         <v>95.83359340865114</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="53">
+        <v>92.521151660563206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
         <v>41</v>
       </c>
@@ -1980,17 +1997,20 @@
       <c r="P12" s="11">
         <v>92.698706099815155</v>
       </c>
-      <c r="Q12" s="54">
+      <c r="Q12" s="53">
         <v>94.17195614541258</v>
       </c>
-      <c r="R12" s="54">
+      <c r="R12" s="53">
         <v>90.746324915190343</v>
       </c>
-      <c r="S12" s="54">
+      <c r="S12" s="53">
         <v>91.694814226107695</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="53">
+        <v>89.321789321789325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
         <v>42</v>
       </c>
@@ -2039,17 +2059,20 @@
       <c r="P13" s="11">
         <v>91.652621722846433</v>
       </c>
-      <c r="Q13" s="54">
+      <c r="Q13" s="53">
         <v>89.922189931564631</v>
       </c>
-      <c r="R13" s="54">
+      <c r="R13" s="53">
         <v>90.894107952204379</v>
       </c>
-      <c r="S13" s="54">
+      <c r="S13" s="53">
         <v>92.720266061341917</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="53">
+        <v>86.485472284764668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
         <v>43</v>
       </c>
@@ -2098,17 +2121,20 @@
       <c r="P14" s="11">
         <v>92.01890494025325</v>
       </c>
-      <c r="Q14" s="54">
+      <c r="Q14" s="53">
         <v>73.377390695435253</v>
       </c>
-      <c r="R14" s="54">
+      <c r="R14" s="53">
         <v>81.065680730752504</v>
       </c>
-      <c r="S14" s="54">
+      <c r="S14" s="53">
         <v>78.590540307267389</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T14" s="53">
+        <v>76.48370416053892</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>44</v>
       </c>
@@ -2157,17 +2183,20 @@
       <c r="P15" s="10">
         <v>95.586032038723062</v>
       </c>
-      <c r="Q15" s="55">
+      <c r="Q15" s="54">
         <v>87.34037868780274</v>
       </c>
-      <c r="R15" s="55">
+      <c r="R15" s="54">
         <v>85.088888888888889</v>
       </c>
-      <c r="S15" s="55">
+      <c r="S15" s="54">
         <v>88.700629650829995</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="T15" s="54">
+        <v>86.049943246311017</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>30</v>
       </c>
@@ -2189,11 +2218,12 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="38"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-    </row>
-    <row r="17" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="55"/>
+    </row>
+    <row r="17" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="30" t="s">
         <v>35</v>
       </c>
@@ -2242,17 +2272,20 @@
       <c r="P17" s="41">
         <v>97.245413942140573</v>
       </c>
-      <c r="Q17" s="57">
+      <c r="Q17" s="56">
         <v>93.789318610145202</v>
       </c>
-      <c r="R17" s="57">
+      <c r="R17" s="56">
         <v>93.37839883628321</v>
       </c>
-      <c r="S17" s="53">
+      <c r="S17" s="52">
         <v>96.389078828315476</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T17" s="52">
+        <v>98.924069208908108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="s">
         <v>36</v>
       </c>
@@ -2301,17 +2334,20 @@
       <c r="P18" s="10">
         <v>98.254512904669554</v>
       </c>
-      <c r="Q18" s="55">
+      <c r="Q18" s="54">
         <v>98.728938811705589</v>
       </c>
-      <c r="R18" s="55">
+      <c r="R18" s="54">
         <v>93.091416608513612</v>
       </c>
-      <c r="S18" s="54">
+      <c r="S18" s="53">
         <v>95.902649414664197</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="53">
+        <v>96.674394436006068</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="35" t="s">
         <v>37</v>
       </c>
@@ -2360,17 +2396,20 @@
       <c r="P19" s="11">
         <v>93.035178795988784</v>
       </c>
-      <c r="Q19" s="54">
+      <c r="Q19" s="53">
         <v>91.334273435401556</v>
       </c>
-      <c r="R19" s="54">
+      <c r="R19" s="53">
         <v>94.815061646117954</v>
       </c>
-      <c r="S19" s="54">
+      <c r="S19" s="53">
         <v>95.851738682785879</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="53">
+        <v>98.675382167807982</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="35" t="s">
         <v>38</v>
       </c>
@@ -2419,17 +2458,20 @@
       <c r="P20" s="11">
         <v>97.676980074096321</v>
       </c>
-      <c r="Q20" s="54">
+      <c r="Q20" s="53">
         <v>96.098069900886813</v>
       </c>
-      <c r="R20" s="54">
+      <c r="R20" s="53">
         <v>100.53781512605042</v>
       </c>
-      <c r="S20" s="54">
+      <c r="S20" s="53">
         <v>102.7568062228323</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="53">
+        <v>103.36035718481963</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="35" t="s">
         <v>39</v>
       </c>
@@ -2478,17 +2520,20 @@
       <c r="P21" s="11">
         <v>98.140747176368365</v>
       </c>
-      <c r="Q21" s="54">
+      <c r="Q21" s="53">
         <v>96.233183856502251</v>
       </c>
-      <c r="R21" s="54">
+      <c r="R21" s="53">
         <v>100.33525796237662</v>
       </c>
-      <c r="S21" s="54">
+      <c r="S21" s="53">
         <v>99.681465259804895</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="53">
+        <v>98.955001066325437</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="35" t="s">
         <v>40</v>
       </c>
@@ -2537,17 +2582,20 @@
       <c r="P22" s="11">
         <v>99.619945272119182</v>
       </c>
-      <c r="Q22" s="54">
+      <c r="Q22" s="53">
         <v>97.454998783750909</v>
       </c>
-      <c r="R22" s="54">
+      <c r="R22" s="53">
         <v>93.78989283832054</v>
       </c>
-      <c r="S22" s="54">
+      <c r="S22" s="53">
         <v>99.066849759690413</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="53">
+        <v>97.256598055310022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="35" t="s">
         <v>41</v>
       </c>
@@ -2596,17 +2644,20 @@
       <c r="P23" s="11">
         <v>95.974889217134418</v>
       </c>
-      <c r="Q23" s="54">
+      <c r="Q23" s="53">
         <v>95.177033492822972</v>
       </c>
-      <c r="R23" s="54">
+      <c r="R23" s="53">
         <v>95.401432340746325</v>
       </c>
-      <c r="S23" s="54">
+      <c r="S23" s="53">
         <v>99.105901053049877</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="53">
+        <v>99.958771387342821</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="35" t="s">
         <v>42</v>
       </c>
@@ -2655,17 +2706,20 @@
       <c r="P24" s="11">
         <v>99.45064923272497</v>
       </c>
-      <c r="Q24" s="54">
+      <c r="Q24" s="53">
         <v>97.514721565354478</v>
       </c>
-      <c r="R24" s="54">
+      <c r="R24" s="53">
         <v>92.308748798242007</v>
       </c>
-      <c r="S24" s="54">
+      <c r="S24" s="53">
         <v>100.16892783614</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="53">
+        <v>101.43668918194489</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="35" t="s">
         <v>43</v>
       </c>
@@ -2714,17 +2768,20 @@
       <c r="P25" s="15">
         <v>96.444387118964698</v>
       </c>
-      <c r="Q25" s="54">
+      <c r="Q25" s="53">
         <v>83.697507681802662</v>
       </c>
-      <c r="R25" s="54">
+      <c r="R25" s="53">
         <v>89.338842975206617</v>
       </c>
-      <c r="S25" s="54">
+      <c r="S25" s="53">
         <v>87.061971344726402</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="53">
+        <v>99.985767825798192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="35" t="s">
         <v>44</v>
       </c>
@@ -2773,17 +2830,20 @@
       <c r="P26" s="15">
         <v>97.981882811604166</v>
       </c>
-      <c r="Q26" s="54">
+      <c r="Q26" s="53">
         <v>93.662126537785582</v>
       </c>
-      <c r="R26" s="54">
+      <c r="R26" s="53">
         <v>87.955555555555549</v>
       </c>
-      <c r="S26" s="55">
+      <c r="S26" s="54">
         <v>95.855752718946761</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" ht="36" x14ac:dyDescent="0.2">
+      <c r="T26" s="54">
+        <v>96.197502837684439</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="36" x14ac:dyDescent="0.2">
       <c r="A27" s="24" t="s">
         <v>31</v>
       </c>
@@ -2805,11 +2865,12 @@
       <c r="N27" s="16"/>
       <c r="O27" s="16"/>
       <c r="P27" s="17"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="52"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q27" s="51"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="51"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="31" t="s">
         <v>35</v>
       </c>
@@ -2858,17 +2919,20 @@
       <c r="P28" s="22">
         <v>95.083643367898887</v>
       </c>
-      <c r="Q28" s="53">
+      <c r="Q28" s="52">
         <v>88.782541857434083</v>
       </c>
-      <c r="R28" s="53">
+      <c r="R28" s="52">
         <v>89.631204460036727</v>
       </c>
-      <c r="S28" s="53">
+      <c r="S28" s="52">
         <v>92.843773094907561</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="52">
+        <v>70.95917476179909</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="35" t="s">
         <v>36</v>
       </c>
@@ -2917,17 +2981,20 @@
       <c r="P29" s="15">
         <v>99.597511891694111</v>
       </c>
-      <c r="Q29" s="54">
+      <c r="Q29" s="53">
         <v>83.44010727056019</v>
       </c>
-      <c r="R29" s="54">
+      <c r="R29" s="53">
         <v>89.204466154919743</v>
       </c>
-      <c r="S29" s="54">
+      <c r="S29" s="53">
         <v>95.656192236598898</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="53">
+        <v>71.980174274522341</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="35" t="s">
         <v>37</v>
       </c>
@@ -2976,17 +3043,20 @@
       <c r="P30" s="15">
         <v>90.08985713362209</v>
       </c>
-      <c r="Q30" s="54">
+      <c r="Q30" s="53">
         <v>88.195819212830926</v>
       </c>
-      <c r="R30" s="54">
+      <c r="R30" s="53">
         <v>84.751749416861045</v>
       </c>
-      <c r="S30" s="54">
+      <c r="S30" s="53">
         <v>91.580590521106643</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="53">
+        <v>58.933388669848519</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="35" t="s">
         <v>38</v>
       </c>
@@ -3035,17 +3105,20 @@
       <c r="P31" s="15">
         <v>94.992817566181003</v>
       </c>
-      <c r="Q31" s="54">
+      <c r="Q31" s="53">
         <v>88.268864933417873</v>
       </c>
-      <c r="R31" s="54">
+      <c r="R31" s="53">
         <v>96.201680672268907</v>
       </c>
-      <c r="S31" s="54">
+      <c r="S31" s="53">
         <v>97.643559826126747</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="53">
+        <v>90.894136999177533</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="35" t="s">
         <v>39</v>
       </c>
@@ -3094,14 +3167,17 @@
       <c r="P32" s="15">
         <v>97.283380681818173</v>
       </c>
-      <c r="Q32" s="54">
+      <c r="Q32" s="53">
         <v>91.250903832248724</v>
       </c>
-      <c r="R32" s="54">
+      <c r="R32" s="53">
         <v>95.567144719687093</v>
       </c>
-      <c r="S32" s="54">
+      <c r="S32" s="53">
         <v>95.022894684451515</v>
+      </c>
+      <c r="T32" s="53">
+        <v>83.066751972702065</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
@@ -3153,16 +3229,18 @@
       <c r="P33" s="15">
         <v>98.414509639060725</v>
       </c>
-      <c r="Q33" s="54">
+      <c r="Q33" s="53">
         <v>95.711274704462852</v>
       </c>
-      <c r="R33" s="54">
+      <c r="R33" s="53">
         <v>91.330444457457389</v>
       </c>
-      <c r="S33" s="54">
+      <c r="S33" s="53">
         <v>96.0270894451033</v>
       </c>
-      <c r="T33" s="48"/>
+      <c r="T33" s="53">
+        <v>63.344487940396512</v>
+      </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="35" t="s">
@@ -3213,16 +3291,18 @@
       <c r="P34" s="15">
         <v>94.2978409300609</v>
       </c>
-      <c r="Q34" s="54">
+      <c r="Q34" s="53">
         <v>95.762224352828383</v>
       </c>
-      <c r="R34" s="54">
+      <c r="R34" s="53">
         <v>91.368262344515642</v>
       </c>
-      <c r="S34" s="54">
+      <c r="S34" s="53">
         <v>90.224518180011927</v>
       </c>
-      <c r="T34" s="16"/>
+      <c r="T34" s="53">
+        <v>78.045763760049468</v>
+      </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="35" t="s">
@@ -3273,16 +3353,18 @@
       <c r="P35" s="15">
         <v>94.916127823071875</v>
       </c>
-      <c r="Q35" s="54">
+      <c r="Q35" s="53">
         <v>90.95590300533658</v>
       </c>
-      <c r="R35" s="54">
+      <c r="R35" s="53">
         <v>92.345373803964662</v>
       </c>
-      <c r="S35" s="54">
+      <c r="S35" s="53">
         <v>94.65237818719315</v>
       </c>
-      <c r="T35" s="16"/>
+      <c r="T35" s="53">
+        <v>85.150637932883029</v>
+      </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="35" t="s">
@@ -3333,25 +3415,27 @@
       <c r="P36" s="15">
         <v>93.823490842330727</v>
       </c>
-      <c r="Q36" s="54">
+      <c r="Q36" s="53">
         <v>79.37812567949554</v>
       </c>
-      <c r="R36" s="54">
+      <c r="R36" s="53">
         <v>88.660287081339717</v>
       </c>
-      <c r="S36" s="54">
+      <c r="S36" s="53">
         <v>86.721042637666145</v>
       </c>
-      <c r="T36" s="16"/>
+      <c r="T36" s="53">
+        <v>74.771099198254191</v>
+      </c>
     </row>
     <row r="37" spans="1:20" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="49" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="25" t="s">
@@ -3390,21 +3474,23 @@
       <c r="O37" s="26">
         <v>93.9</v>
       </c>
-      <c r="P37" s="51">
+      <c r="P37" s="50">
         <v>95.896253602305464</v>
       </c>
-      <c r="Q37" s="59">
+      <c r="Q37" s="58">
         <v>87.352779306549252</v>
       </c>
-      <c r="R37" s="59">
+      <c r="R37" s="58">
         <v>84.944444444444443</v>
       </c>
-      <c r="S37" s="54">
+      <c r="S37" s="58">
         <v>89.112764739553512</v>
       </c>
-      <c r="T37" s="48"/>
-    </row>
-    <row r="38" spans="1:20" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T37" s="58">
+        <v>67.582292849035184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -3419,9 +3505,9 @@
       <c r="N38" s="16"/>
       <c r="O38" s="16"/>
       <c r="P38" s="16"/>
-      <c r="Q38" s="58"/>
-      <c r="R38" s="58"/>
-      <c r="S38" s="60"/>
+      <c r="Q38" s="57"/>
+      <c r="R38" s="57"/>
+      <c r="S38" s="57"/>
       <c r="T38" s="16"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
